--- a/storage/data/users.xlsx
+++ b/storage/data/users.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$206</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -847,7 +850,7 @@
     <t>程松</t>
   </si>
   <si>
-    <t>外语语学院</t>
+    <t>外国语学院</t>
   </si>
   <si>
     <t>朱国民</t>
@@ -1095,10 +1098,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1127,15 +1130,48 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,14 +1193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,15 +1201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1202,7 +1223,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1216,14 +1244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1232,7 +1252,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1241,31 +1267,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1280,19 +1283,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,7 +1313,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,19 +1355,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,67 +1439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,49 +1463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,6 +1488,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1514,41 +1556,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1565,24 +1581,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1594,10 +1597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1606,133 +1609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1816,17 +1819,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2107,8 +2100,8 @@
   <sheetPr/>
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -5334,11 +5327,12 @@
       <c r="F206" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F206"/>
   <conditionalFormatting sqref="B1:C206">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B185:C206">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/storage/data/users.xlsx
+++ b/storage/data/users.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\student-work\storage\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="342">
   <si>
     <t>学院</t>
   </si>
@@ -1092,18 +1097,15 @@
   <si>
     <t>李姗姗</t>
   </si>
+  <si>
+    <t>二级学院</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1130,345 +1132,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1491,251 +1169,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1768,58 +1204,20 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1835,6 +1233,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2092,19 +1493,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
@@ -2114,7 +1515,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2134,7 +1535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -2150,7 +1551,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2164,7 +1565,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2182,7 +1583,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +1597,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -2212,7 +1613,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -2228,7 +1629,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2244,7 +1645,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -2262,7 +1663,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -2276,7 +1677,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -2290,7 +1691,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -2306,7 +1707,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -2324,7 +1725,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -2338,7 +1739,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -2356,7 +1757,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -2370,7 +1771,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -2386,7 +1787,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -2402,7 +1803,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2418,7 +1819,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -2434,7 +1835,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
@@ -2448,7 +1849,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
@@ -2462,7 +1863,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -2476,7 +1877,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -2492,7 +1893,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -2506,7 +1907,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
@@ -2522,7 +1923,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -2536,7 +1937,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -2552,7 +1953,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>47</v>
       </c>
@@ -2568,7 +1969,7 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
@@ -2582,7 +1983,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>47</v>
       </c>
@@ -2596,7 +1997,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>47</v>
       </c>
@@ -2614,7 +2015,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>47</v>
       </c>
@@ -2628,7 +2029,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
@@ -2646,7 +2047,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>63</v>
       </c>
@@ -2664,7 +2065,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>63</v>
       </c>
@@ -2682,7 +2083,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>70</v>
       </c>
@@ -2696,7 +2097,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>70</v>
       </c>
@@ -2710,7 +2111,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>70</v>
       </c>
@@ -2724,7 +2125,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
@@ -2738,7 +2139,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>70</v>
       </c>
@@ -2752,7 +2153,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>70</v>
       </c>
@@ -2767,10 +2168,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>70</v>
       </c>
@@ -2784,7 +2185,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>70</v>
       </c>
@@ -2798,7 +2199,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
@@ -2812,7 +2213,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>70</v>
       </c>
@@ -2827,10 +2228,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>70</v>
       </c>
@@ -2844,7 +2245,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>70</v>
       </c>
@@ -2858,7 +2259,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>70</v>
       </c>
@@ -2873,10 +2274,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>70</v>
       </c>
@@ -2890,7 +2291,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>70</v>
       </c>
@@ -2904,7 +2305,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>70</v>
       </c>
@@ -2920,7 +2321,7 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>92</v>
       </c>
@@ -2936,7 +2337,7 @@
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>92</v>
       </c>
@@ -2950,7 +2351,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>92</v>
       </c>
@@ -2965,10 +2366,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>92</v>
       </c>
@@ -2983,10 +2384,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>92</v>
       </c>
@@ -3000,7 +2401,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>92</v>
       </c>
@@ -3014,7 +2415,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>92</v>
       </c>
@@ -3028,7 +2429,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>92</v>
       </c>
@@ -3044,7 +2445,7 @@
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>92</v>
       </c>
@@ -3060,7 +2461,7 @@
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>92</v>
       </c>
@@ -3074,7 +2475,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>92</v>
       </c>
@@ -3088,7 +2489,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>92</v>
       </c>
@@ -3102,7 +2503,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>110</v>
       </c>
@@ -3119,10 +2520,10 @@
         <v>112</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>110</v>
       </c>
@@ -3136,7 +2537,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>110</v>
       </c>
@@ -3152,7 +2553,7 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>110</v>
       </c>
@@ -3168,7 +2569,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>110</v>
       </c>
@@ -3183,10 +2584,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
@@ -3202,7 +2603,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>110</v>
       </c>
@@ -3216,7 +2617,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>110</v>
       </c>
@@ -3230,7 +2631,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>110</v>
       </c>
@@ -3246,7 +2647,7 @@
       </c>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>127</v>
       </c>
@@ -3260,7 +2661,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>127</v>
       </c>
@@ -3277,10 +2678,10 @@
         <v>131</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>127</v>
       </c>
@@ -3296,7 +2697,7 @@
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>127</v>
       </c>
@@ -3311,10 +2712,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>127</v>
       </c>
@@ -3328,7 +2729,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>127</v>
       </c>
@@ -3342,7 +2743,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>127</v>
       </c>
@@ -3358,7 +2759,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>127</v>
       </c>
@@ -3372,7 +2773,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>127</v>
       </c>
@@ -3386,7 +2787,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>127</v>
       </c>
@@ -3401,10 +2802,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>127</v>
       </c>
@@ -3418,7 +2819,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>127</v>
       </c>
@@ -3434,7 +2835,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>147</v>
       </c>
@@ -3450,7 +2851,7 @@
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>147</v>
       </c>
@@ -3466,7 +2867,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>147</v>
       </c>
@@ -3480,7 +2881,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>147</v>
       </c>
@@ -3494,7 +2895,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>147</v>
       </c>
@@ -3508,7 +2909,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>147</v>
       </c>
@@ -3522,7 +2923,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>147</v>
       </c>
@@ -3536,7 +2937,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>147</v>
       </c>
@@ -3550,7 +2951,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>147</v>
       </c>
@@ -3564,7 +2965,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>147</v>
       </c>
@@ -3581,10 +2982,10 @@
         <v>13615542285</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>147</v>
       </c>
@@ -3601,10 +3002,10 @@
         <v>13955463101</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>147</v>
       </c>
@@ -3618,7 +3019,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>147</v>
       </c>
@@ -3632,7 +3033,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>147</v>
       </c>
@@ -3646,7 +3047,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>147</v>
       </c>
@@ -3660,7 +3061,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>147</v>
       </c>
@@ -3674,7 +3075,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>147</v>
       </c>
@@ -3688,7 +3089,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>147</v>
       </c>
@@ -3702,7 +3103,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>147</v>
       </c>
@@ -3716,7 +3117,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>147</v>
       </c>
@@ -3730,7 +3131,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>147</v>
       </c>
@@ -3746,7 +3147,7 @@
       </c>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>147</v>
       </c>
@@ -3760,7 +3161,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>147</v>
       </c>
@@ -3777,10 +3178,10 @@
         <v>13695612778</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>147</v>
       </c>
@@ -3796,7 +3197,7 @@
       </c>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>147</v>
       </c>
@@ -3812,7 +3213,7 @@
       </c>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>147</v>
       </c>
@@ -3826,7 +3227,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>183</v>
       </c>
@@ -3843,10 +3244,10 @@
         <v>18955401990</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>185</v>
       </c>
@@ -3860,7 +3261,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>185</v>
       </c>
@@ -3874,7 +3275,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>185</v>
       </c>
@@ -3888,7 +3289,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>185</v>
       </c>
@@ -3904,7 +3305,7 @@
       </c>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>185</v>
       </c>
@@ -3918,7 +3319,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>185</v>
       </c>
@@ -3932,7 +3333,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>185</v>
       </c>
@@ -3946,7 +3347,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>185</v>
       </c>
@@ -3963,10 +3364,10 @@
         <v>13956436854</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>185</v>
       </c>
@@ -3982,7 +3383,7 @@
       </c>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>185</v>
       </c>
@@ -3996,7 +3397,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>185</v>
       </c>
@@ -4010,7 +3411,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>185</v>
       </c>
@@ -4024,7 +3425,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>185</v>
       </c>
@@ -4038,7 +3439,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>185</v>
       </c>
@@ -4055,10 +3456,10 @@
         <v>13955462782</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>185</v>
       </c>
@@ -4075,10 +3476,10 @@
         <v>15357995025</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>185</v>
       </c>
@@ -4092,7 +3493,7 @@
       <c r="E128" s="2"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>185</v>
       </c>
@@ -4108,7 +3509,7 @@
       </c>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>185</v>
       </c>
@@ -4122,7 +3523,7 @@
       <c r="E130" s="2"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>185</v>
       </c>
@@ -4136,7 +3537,7 @@
       <c r="E131" s="2"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>219</v>
       </c>
@@ -4150,7 +3551,7 @@
       <c r="E132" s="2"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>219</v>
       </c>
@@ -4164,7 +3565,7 @@
       <c r="E133" s="2"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>219</v>
       </c>
@@ -4181,10 +3582,10 @@
         <v>13956451051</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>219</v>
       </c>
@@ -4198,7 +3599,7 @@
       <c r="E135" s="2"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>219</v>
       </c>
@@ -4215,10 +3616,10 @@
         <v>15956691434</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>219</v>
       </c>
@@ -4232,7 +3633,7 @@
       <c r="E137" s="2"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>219</v>
       </c>
@@ -4246,7 +3647,7 @@
       <c r="E138" s="2"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>219</v>
       </c>
@@ -4263,10 +3664,10 @@
         <v>13705542329</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>219</v>
       </c>
@@ -4282,7 +3683,7 @@
       </c>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>219</v>
       </c>
@@ -4298,7 +3699,7 @@
       </c>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>219</v>
       </c>
@@ -4314,7 +3715,7 @@
       </c>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>219</v>
       </c>
@@ -4328,7 +3729,7 @@
       <c r="E143" s="2"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>219</v>
       </c>
@@ -4342,7 +3743,7 @@
       <c r="E144" s="2"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>239</v>
       </c>
@@ -4358,7 +3759,7 @@
       </c>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>239</v>
       </c>
@@ -4372,7 +3773,7 @@
       <c r="E146" s="2"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>239</v>
       </c>
@@ -4386,7 +3787,7 @@
       <c r="E147" s="2"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>239</v>
       </c>
@@ -4400,7 +3801,7 @@
       <c r="E148" s="2"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>239</v>
       </c>
@@ -4416,7 +3817,7 @@
       </c>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>239</v>
       </c>
@@ -4430,7 +3831,7 @@
       <c r="E150" s="2"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>239</v>
       </c>
@@ -4446,7 +3847,7 @@
       </c>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>239</v>
       </c>
@@ -4460,7 +3861,7 @@
       <c r="E152" s="2"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>239</v>
       </c>
@@ -4477,10 +3878,10 @@
         <v>13905546475</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>239</v>
       </c>
@@ -4497,10 +3898,10 @@
         <v>13956430210</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>239</v>
       </c>
@@ -4517,10 +3918,10 @@
         <v>18963772898</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>239</v>
       </c>
@@ -4534,7 +3935,7 @@
       <c r="E156" s="2"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>239</v>
       </c>
@@ -4548,7 +3949,7 @@
       <c r="E157" s="2"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>260</v>
       </c>
@@ -4565,10 +3966,10 @@
         <v>13966467387</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>260</v>
       </c>
@@ -4584,7 +3985,7 @@
       </c>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>260</v>
       </c>
@@ -4601,10 +4002,10 @@
         <v>13955453139</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>260</v>
       </c>
@@ -4618,7 +4019,7 @@
       <c r="E161" s="2"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
         <v>260</v>
       </c>
@@ -4632,7 +4033,7 @@
       <c r="E162" s="2"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
         <v>260</v>
       </c>
@@ -4646,7 +4047,7 @@
       <c r="E163" s="2"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
         <v>260</v>
       </c>
@@ -4660,7 +4061,7 @@
       <c r="E164" s="2"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>260</v>
       </c>
@@ -4674,7 +4075,7 @@
       <c r="E165" s="2"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
         <v>260</v>
       </c>
@@ -4688,7 +4089,7 @@
       <c r="E166" s="2"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
         <v>260</v>
       </c>
@@ -4702,7 +4103,7 @@
       <c r="E167" s="2"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>260</v>
       </c>
@@ -4716,7 +4117,7 @@
       <c r="E168" s="2"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>260</v>
       </c>
@@ -4730,7 +4131,7 @@
       <c r="E169" s="2"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>260</v>
       </c>
@@ -4744,7 +4145,7 @@
       <c r="E170" s="2"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
         <v>260</v>
       </c>
@@ -4760,7 +4161,7 @@
       </c>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
         <v>260</v>
       </c>
@@ -4777,10 +4178,10 @@
         <v>15105542916</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
         <v>260</v>
       </c>
@@ -4794,7 +4195,7 @@
       <c r="E173" s="2"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
         <v>260</v>
       </c>
@@ -4808,7 +4209,7 @@
       <c r="E174" s="2"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
         <v>290</v>
       </c>
@@ -4822,7 +4223,7 @@
       <c r="E175" s="2"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>290</v>
       </c>
@@ -4838,7 +4239,7 @@
       </c>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>290</v>
       </c>
@@ -4852,7 +4253,7 @@
       <c r="E177" s="2"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>290</v>
       </c>
@@ -4866,7 +4267,7 @@
       <c r="E178" s="2"/>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>290</v>
       </c>
@@ -4883,10 +4284,10 @@
         <v>13955466508</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
         <v>290</v>
       </c>
@@ -4900,7 +4301,7 @@
       <c r="E180" s="2"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
         <v>290</v>
       </c>
@@ -4914,7 +4315,7 @@
       <c r="E181" s="2"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
         <v>290</v>
       </c>
@@ -4931,10 +4332,10 @@
         <v>13855407967</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
         <v>290</v>
       </c>
@@ -4950,7 +4351,7 @@
       </c>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
         <v>290</v>
       </c>
@@ -4966,7 +4367,7 @@
       </c>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
         <v>290</v>
       </c>
@@ -4980,7 +4381,7 @@
       <c r="E185" s="2"/>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
         <v>290</v>
       </c>
@@ -4994,7 +4395,7 @@
       <c r="E186" s="2"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
         <v>312</v>
       </c>
@@ -5014,7 +4415,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
         <v>312</v>
       </c>
@@ -5034,7 +4435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
         <v>312</v>
       </c>
@@ -5054,7 +4455,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
         <v>312</v>
       </c>
@@ -5074,7 +4475,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
         <v>312</v>
       </c>
@@ -5094,7 +4495,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
         <v>312</v>
       </c>
@@ -5110,7 +4511,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
         <v>322</v>
       </c>
@@ -5124,7 +4525,7 @@
       <c r="E193" s="2"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
         <v>322</v>
       </c>
@@ -5141,10 +4542,10 @@
         <v>18655480006</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
         <v>322</v>
       </c>
@@ -5158,7 +4559,7 @@
       <c r="E195" s="2"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
         <v>322</v>
       </c>
@@ -5172,7 +4573,7 @@
       <c r="E196" s="2"/>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
         <v>322</v>
       </c>
@@ -5189,10 +4590,10 @@
         <v>13605549830</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>322</v>
       </c>
@@ -5206,7 +4607,7 @@
       <c r="E198" s="2"/>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>322</v>
       </c>
@@ -5220,7 +4621,7 @@
       <c r="E199" s="2"/>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
         <v>322</v>
       </c>
@@ -5234,7 +4635,7 @@
       <c r="E200" s="2"/>
       <c r="F200" s="3"/>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>322</v>
       </c>
@@ -5248,7 +4649,7 @@
       <c r="E201" s="2"/>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
         <v>322</v>
       </c>
@@ -5264,7 +4665,7 @@
       </c>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>322</v>
       </c>
@@ -5278,7 +4679,7 @@
       <c r="E203" s="2"/>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>322</v>
       </c>
@@ -5295,10 +4696,10 @@
         <v>18055444071</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>322</v>
       </c>
@@ -5312,7 +4713,7 @@
       <c r="E205" s="2"/>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
         <v>322</v>
       </c>
@@ -5328,13 +4729,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F206"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:C206">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B185:C206">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F569">
+      <formula1>"管理员,二级学院,教师"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/storage/data/users.xlsx
+++ b/storage/data/users.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\student-work\storage\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12636"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="348">
   <si>
     <t>学院</t>
   </si>
@@ -1050,9 +1055,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>翟骏</t>
-  </si>
-  <si>
     <t>301035</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1064,12 +1066,16 @@
   </si>
   <si>
     <t>李钊</t>
+  </si>
+  <si>
+    <t>翟骏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1165,16 +1171,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1474,22 +1480,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I207" sqref="I207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1543,7 +1549,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1597,7 +1603,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1675,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1685,7 +1691,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1847,7 +1853,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -1913,7 +1919,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>401037</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>11</v>
@@ -1947,7 +1953,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>47</v>
       </c>
@@ -1999,7 +2005,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>47</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>47</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>47</v>
       </c>
@@ -2067,7 +2073,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
@@ -2085,7 +2091,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>69</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>69</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>69</v>
       </c>
@@ -2169,7 +2175,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>69</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>69</v>
       </c>
@@ -2201,7 +2207,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>69</v>
       </c>
@@ -2219,7 +2225,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>69</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>69</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>69</v>
       </c>
@@ -2267,7 +2273,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>69</v>
       </c>
@@ -2275,7 +2281,7 @@
         <v>308004</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>20</v>
@@ -2285,7 +2291,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>69</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>69</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>69</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>69</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>69</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>69</v>
       </c>
@@ -2385,7 +2391,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>90</v>
       </c>
@@ -2403,7 +2409,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>90</v>
       </c>
@@ -2419,7 +2425,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>90</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>90</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>90</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>90</v>
       </c>
@@ -2487,7 +2493,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>90</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>90</v>
       </c>
@@ -2521,7 +2527,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>90</v>
       </c>
@@ -2539,7 +2545,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>90</v>
       </c>
@@ -2555,7 +2561,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>90</v>
       </c>
@@ -2571,7 +2577,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>90</v>
       </c>
@@ -2587,7 +2593,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>108</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>108</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>108</v>
       </c>
@@ -2641,7 +2647,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>108</v>
       </c>
@@ -2659,7 +2665,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>108</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>108</v>
       </c>
@@ -2695,7 +2701,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>108</v>
       </c>
@@ -2711,7 +2717,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>108</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>108</v>
       </c>
@@ -2745,7 +2751,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>125</v>
       </c>
@@ -2761,7 +2767,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>125</v>
       </c>
@@ -2781,7 +2787,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>125</v>
       </c>
@@ -2799,7 +2805,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>125</v>
       </c>
@@ -2817,7 +2823,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>125</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>125</v>
       </c>
@@ -2849,7 +2855,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>125</v>
       </c>
@@ -2867,7 +2873,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>125</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>125</v>
       </c>
@@ -2899,7 +2905,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>125</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>125</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>125</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>145</v>
       </c>
@@ -2969,7 +2975,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>145</v>
       </c>
@@ -2987,7 +2993,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>145</v>
       </c>
@@ -3003,7 +3009,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>145</v>
       </c>
@@ -3019,7 +3025,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>145</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>145</v>
       </c>
@@ -3051,7 +3057,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>145</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>145</v>
       </c>
@@ -3083,7 +3089,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>145</v>
       </c>
@@ -3099,7 +3105,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>145</v>
       </c>
@@ -3119,7 +3125,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>145</v>
       </c>
@@ -3139,7 +3145,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>145</v>
       </c>
@@ -3155,7 +3161,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>145</v>
       </c>
@@ -3171,7 +3177,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>145</v>
       </c>
@@ -3187,7 +3193,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>145</v>
       </c>
@@ -3203,7 +3209,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>145</v>
       </c>
@@ -3219,7 +3225,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>145</v>
       </c>
@@ -3235,7 +3241,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>145</v>
       </c>
@@ -3251,7 +3257,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>145</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>145</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>145</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>145</v>
       </c>
@@ -3317,7 +3323,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>145</v>
       </c>
@@ -3337,7 +3343,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>145</v>
       </c>
@@ -3355,7 +3361,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>145</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>145</v>
       </c>
@@ -3389,7 +3395,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>181</v>
       </c>
@@ -3409,7 +3415,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>183</v>
       </c>
@@ -3425,7 +3431,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>183</v>
       </c>
@@ -3441,7 +3447,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>183</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>183</v>
       </c>
@@ -3475,7 +3481,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>183</v>
       </c>
@@ -3491,7 +3497,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>183</v>
       </c>
@@ -3507,7 +3513,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>183</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>183</v>
       </c>
@@ -3543,7 +3549,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>183</v>
       </c>
@@ -3561,7 +3567,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>183</v>
       </c>
@@ -3577,7 +3583,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>183</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>183</v>
       </c>
@@ -3609,7 +3615,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>183</v>
       </c>
@@ -3625,7 +3631,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>183</v>
       </c>
@@ -3645,7 +3651,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>183</v>
       </c>
@@ -3665,7 +3671,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>183</v>
       </c>
@@ -3681,7 +3687,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>183</v>
       </c>
@@ -3699,7 +3705,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>183</v>
       </c>
@@ -3715,7 +3721,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>183</v>
       </c>
@@ -3731,7 +3737,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>217</v>
       </c>
@@ -3747,7 +3753,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>217</v>
       </c>
@@ -3763,7 +3769,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>217</v>
       </c>
@@ -3783,7 +3789,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>217</v>
       </c>
@@ -3799,7 +3805,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>217</v>
       </c>
@@ -3819,7 +3825,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>217</v>
       </c>
@@ -3835,7 +3841,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>217</v>
       </c>
@@ -3851,7 +3857,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>217</v>
       </c>
@@ -3859,7 +3865,7 @@
         <v>103098</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>11</v>
@@ -3871,7 +3877,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>217</v>
       </c>
@@ -3889,7 +3895,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>217</v>
       </c>
@@ -3907,7 +3913,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>217</v>
       </c>
@@ -3925,7 +3931,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>217</v>
       </c>
@@ -3941,7 +3947,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>217</v>
       </c>
@@ -3957,7 +3963,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>236</v>
       </c>
@@ -3975,7 +3981,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>236</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>236</v>
       </c>
@@ -4007,7 +4013,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>236</v>
       </c>
@@ -4023,7 +4029,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>236</v>
       </c>
@@ -4041,7 +4047,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>236</v>
       </c>
@@ -4057,7 +4063,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>236</v>
       </c>
@@ -4075,7 +4081,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>236</v>
       </c>
@@ -4091,7 +4097,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>236</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>236</v>
       </c>
@@ -4131,7 +4137,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>236</v>
       </c>
@@ -4151,7 +4157,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>236</v>
       </c>
@@ -4167,7 +4173,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>236</v>
       </c>
@@ -4183,7 +4189,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>257</v>
       </c>
@@ -4203,7 +4209,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>257</v>
       </c>
@@ -4221,7 +4227,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>257</v>
       </c>
@@ -4241,7 +4247,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>257</v>
       </c>
@@ -4257,7 +4263,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>257</v>
       </c>
@@ -4273,7 +4279,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>257</v>
       </c>
@@ -4289,7 +4295,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>257</v>
       </c>
@@ -4305,7 +4311,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>257</v>
       </c>
@@ -4321,7 +4327,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>257</v>
       </c>
@@ -4337,7 +4343,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>257</v>
       </c>
@@ -4353,7 +4359,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>257</v>
       </c>
@@ -4369,7 +4375,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>257</v>
       </c>
@@ -4385,7 +4391,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>257</v>
       </c>
@@ -4401,7 +4407,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>257</v>
       </c>
@@ -4419,7 +4425,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>257</v>
       </c>
@@ -4439,7 +4445,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>257</v>
       </c>
@@ -4455,7 +4461,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>257</v>
       </c>
@@ -4471,7 +4477,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>287</v>
       </c>
@@ -4487,7 +4493,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>287</v>
       </c>
@@ -4505,7 +4511,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>287</v>
       </c>
@@ -4521,7 +4527,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>287</v>
       </c>
@@ -4537,7 +4543,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>287</v>
       </c>
@@ -4557,7 +4563,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>287</v>
       </c>
@@ -4573,7 +4579,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>287</v>
       </c>
@@ -4589,7 +4595,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>287</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>287</v>
       </c>
@@ -4627,7 +4633,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>287</v>
       </c>
@@ -4645,7 +4651,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>287</v>
       </c>
@@ -4661,7 +4667,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>287</v>
       </c>
@@ -4677,7 +4683,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>309</v>
       </c>
@@ -4697,7 +4703,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>309</v>
       </c>
@@ -4717,7 +4723,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>309</v>
       </c>
@@ -4737,7 +4743,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>309</v>
       </c>
@@ -4757,7 +4763,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>309</v>
       </c>
@@ -4777,7 +4783,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>309</v>
       </c>
@@ -4793,7 +4799,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>319</v>
       </c>
@@ -4809,7 +4815,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>319</v>
       </c>
@@ -4829,7 +4835,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>319</v>
       </c>
@@ -4845,7 +4851,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>319</v>
       </c>
@@ -4861,7 +4867,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>319</v>
       </c>
@@ -4881,7 +4887,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>319</v>
       </c>
@@ -4897,7 +4903,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>319</v>
       </c>
@@ -4913,7 +4919,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>319</v>
       </c>
@@ -4929,7 +4935,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>319</v>
       </c>
@@ -4945,7 +4951,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>319</v>
       </c>
@@ -4963,7 +4969,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>319</v>
       </c>
@@ -4979,7 +4985,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>319</v>
       </c>
@@ -4999,7 +5005,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>319</v>
       </c>
@@ -5015,7 +5021,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>319</v>
       </c>
@@ -5031,7 +5037,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>342</v>
       </c>
@@ -5047,19 +5053,21 @@
         <v>64</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>342</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
-      <c r="F208" s="6"/>
+      <c r="F208" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
